--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H2">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I2">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J2">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N2">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O2">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P2">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q2">
-        <v>29217.11851535815</v>
+        <v>70521.31626368225</v>
       </c>
       <c r="R2">
-        <v>262954.0666382234</v>
+        <v>634691.8463731403</v>
       </c>
       <c r="S2">
-        <v>0.280545548349183</v>
+        <v>0.3577923426983315</v>
       </c>
       <c r="T2">
-        <v>0.280545548349183</v>
+        <v>0.3577923426983315</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H3">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I3">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J3">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N3">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O3">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P3">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q3">
-        <v>13800.74323204654</v>
+        <v>25429.6510223186</v>
       </c>
       <c r="R3">
-        <v>124206.6890884189</v>
+        <v>228866.8592008674</v>
       </c>
       <c r="S3">
-        <v>0.1325160479335282</v>
+        <v>0.129018215985314</v>
       </c>
       <c r="T3">
-        <v>0.1325160479335281</v>
+        <v>0.129018215985314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H4">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I4">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J4">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N4">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O4">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P4">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q4">
-        <v>563.7896586178468</v>
+        <v>333.595577929075</v>
       </c>
       <c r="R4">
-        <v>5074.106927560621</v>
+        <v>3002.360201361675</v>
       </c>
       <c r="S4">
-        <v>0.005413561876315772</v>
+        <v>0.001692508728775893</v>
       </c>
       <c r="T4">
-        <v>0.005413561876315772</v>
+        <v>0.001692508728775893</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H5">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I5">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J5">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N5">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O5">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P5">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q5">
-        <v>6450.893550579441</v>
+        <v>8570.948529017034</v>
       </c>
       <c r="R5">
-        <v>58058.04195521496</v>
+        <v>77138.53676115331</v>
       </c>
       <c r="S5">
-        <v>0.06194209287059577</v>
+        <v>0.04348500447549219</v>
       </c>
       <c r="T5">
-        <v>0.06194209287059575</v>
+        <v>0.04348500447549219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H6">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I6">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J6">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N6">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O6">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P6">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q6">
-        <v>13555.64867142006</v>
+        <v>44826.8442095643</v>
       </c>
       <c r="R6">
-        <v>122000.8380427806</v>
+        <v>403441.5978860788</v>
       </c>
       <c r="S6">
-        <v>0.1301626266722148</v>
+        <v>0.2274305480281132</v>
       </c>
       <c r="T6">
-        <v>0.1301626266722147</v>
+        <v>0.2274305480281132</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H7">
         <v>169.980652</v>
       </c>
       <c r="I7">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J7">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N7">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O7">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P7">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q7">
-        <v>7251.605278064764</v>
+        <v>11997.06037685909</v>
       </c>
       <c r="R7">
-        <v>65264.44750258288</v>
+        <v>107973.5433917318</v>
       </c>
       <c r="S7">
-        <v>0.06963060296576173</v>
+        <v>0.06086750170232305</v>
       </c>
       <c r="T7">
-        <v>0.06963060296576172</v>
+        <v>0.06086750170232305</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H8">
         <v>169.980652</v>
       </c>
       <c r="I8">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J8">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N8">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O8">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P8">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q8">
-        <v>3425.305011174149</v>
+        <v>4326.082875942097</v>
       </c>
       <c r="R8">
-        <v>30827.74510056734</v>
+        <v>38934.74588347887</v>
       </c>
       <c r="S8">
-        <v>0.03289010420784395</v>
+        <v>0.02194853143555943</v>
       </c>
       <c r="T8">
-        <v>0.03289010420784393</v>
+        <v>0.02194853143555943</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H9">
         <v>169.980652</v>
       </c>
       <c r="I9">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J9">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N9">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O9">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P9">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q9">
-        <v>139.9309812842231</v>
+        <v>56.75115698215332</v>
       </c>
       <c r="R9">
-        <v>1259.378831558008</v>
+        <v>510.76041283938</v>
       </c>
       <c r="S9">
-        <v>0.001343630579271052</v>
+        <v>0.0002879289622383628</v>
       </c>
       <c r="T9">
-        <v>0.001343630579271052</v>
+        <v>0.0002879289622383628</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H10">
         <v>169.980652</v>
       </c>
       <c r="I10">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J10">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N10">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O10">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P10">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q10">
-        <v>1601.093334889475</v>
+        <v>1458.086610367529</v>
       </c>
       <c r="R10">
-        <v>14409.84001400528</v>
+        <v>13122.77949330776</v>
       </c>
       <c r="S10">
-        <v>0.01537385034594278</v>
+        <v>0.007397652962543095</v>
       </c>
       <c r="T10">
-        <v>0.01537385034594278</v>
+        <v>0.007397652962543095</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H11">
         <v>169.980652</v>
       </c>
       <c r="I11">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J11">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N11">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O11">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P11">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q11">
-        <v>3364.473241999866</v>
+        <v>7625.926244419174</v>
       </c>
       <c r="R11">
-        <v>30280.2591779988</v>
+        <v>68633.33619977257</v>
       </c>
       <c r="S11">
-        <v>0.03230599177967691</v>
+        <v>0.03869040115521176</v>
       </c>
       <c r="T11">
-        <v>0.03230599177967689</v>
+        <v>0.03869040115521176</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H12">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I12">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J12">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N12">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O12">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P12">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q12">
-        <v>82.78333938593198</v>
+        <v>148.2298950495795</v>
       </c>
       <c r="R12">
-        <v>745.0500544733879</v>
+        <v>1334.069055446215</v>
       </c>
       <c r="S12">
-        <v>0.0007948934912932881</v>
+        <v>0.0007520495109509122</v>
       </c>
       <c r="T12">
-        <v>0.0007948934912932881</v>
+        <v>0.0007520495109509121</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H13">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I13">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J13">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N13">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O13">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P13">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q13">
-        <v>39.10281604792977</v>
+        <v>53.45099470480156</v>
       </c>
       <c r="R13">
-        <v>351.925344431368</v>
+        <v>481.058952343214</v>
       </c>
       <c r="S13">
-        <v>0.0003754689554480599</v>
+        <v>0.0002711854745234798</v>
       </c>
       <c r="T13">
-        <v>0.0003754689554480598</v>
+        <v>0.0002711854745234797</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H14">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I14">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J14">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N14">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O14">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P14">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q14">
-        <v>1.597433046900444</v>
+        <v>0.7011899397983332</v>
       </c>
       <c r="R14">
-        <v>14.376897422104</v>
+        <v>6.310709458184999</v>
       </c>
       <c r="S14">
-        <v>1.533870391285223E-05</v>
+        <v>3.557511466446472E-06</v>
       </c>
       <c r="T14">
-        <v>1.533870391285223E-05</v>
+        <v>3.557511466446472E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H15">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I15">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J15">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N15">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O15">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P15">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q15">
-        <v>18.27786370717644</v>
+        <v>18.01541531331033</v>
       </c>
       <c r="R15">
-        <v>164.500773364588</v>
+        <v>162.138737819793</v>
       </c>
       <c r="S15">
-        <v>0.0001755057841753287</v>
+        <v>9.140183409980125E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001755057841753287</v>
+        <v>9.140183409980123E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H16">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I16">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J16">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N16">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O16">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P16">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q16">
-        <v>38.40836884625511</v>
+        <v>94.22226873563767</v>
       </c>
       <c r="R16">
-        <v>345.675319616296</v>
+        <v>848.000418620739</v>
       </c>
       <c r="S16">
-        <v>0.0003688008074275436</v>
+        <v>0.0004780399466627212</v>
       </c>
       <c r="T16">
-        <v>0.0003688008074275435</v>
+        <v>0.0004780399466627212</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H17">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I17">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J17">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N17">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O17">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P17">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q17">
-        <v>11101.67803092579</v>
+        <v>9834.042093935588</v>
       </c>
       <c r="R17">
-        <v>99915.10227833212</v>
+        <v>88506.37884542029</v>
       </c>
       <c r="S17">
-        <v>0.1065993673929544</v>
+        <v>0.04989335346247974</v>
       </c>
       <c r="T17">
-        <v>0.1065993673929544</v>
+        <v>0.04989335346247974</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H18">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I18">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J18">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N18">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O18">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P18">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q18">
-        <v>5243.891791352472</v>
+        <v>3546.108777274198</v>
       </c>
       <c r="R18">
-        <v>47195.02612217225</v>
+        <v>31914.97899546778</v>
       </c>
       <c r="S18">
-        <v>0.05035234728282463</v>
+        <v>0.0179913058080207</v>
       </c>
       <c r="T18">
-        <v>0.05035234728282462</v>
+        <v>0.01799130580802069</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H19">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I19">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J19">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N19">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O19">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P19">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q19">
-        <v>214.2241119311891</v>
+        <v>46.51916795538833</v>
       </c>
       <c r="R19">
-        <v>1928.017007380702</v>
+        <v>418.6725115984949</v>
       </c>
       <c r="S19">
-        <v>0.002057000279468371</v>
+        <v>0.0002360166112172687</v>
       </c>
       <c r="T19">
-        <v>0.002057000279468371</v>
+        <v>0.0002360166112172687</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H20">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I20">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J20">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N20">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O20">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P20">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q20">
-        <v>2451.156953505303</v>
+        <v>1195.199878348212</v>
       </c>
       <c r="R20">
-        <v>22060.41258154772</v>
+        <v>10756.79890513391</v>
       </c>
       <c r="S20">
-        <v>0.02353624198942086</v>
+        <v>0.00606388801462565</v>
       </c>
       <c r="T20">
-        <v>0.02353624198942086</v>
+        <v>0.006063888014625649</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H21">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I21">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J21">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N21">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O21">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P21">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q21">
-        <v>5150.762795836501</v>
+        <v>6251.004607555383</v>
       </c>
       <c r="R21">
-        <v>46356.86516252851</v>
+        <v>56259.04146799845</v>
       </c>
       <c r="S21">
-        <v>0.04945811381827189</v>
+        <v>0.03171468856866914</v>
       </c>
       <c r="T21">
-        <v>0.04945811381827187</v>
+        <v>0.03171468856866914</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H22">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I22">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J22">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N22">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O22">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P22">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q22">
-        <v>102.669930951482</v>
+        <v>259.3911472137945</v>
       </c>
       <c r="R22">
-        <v>924.029378563338</v>
+        <v>2334.52032492415</v>
       </c>
       <c r="S22">
-        <v>0.0009858464332345265</v>
+        <v>0.00131602997723153</v>
       </c>
       <c r="T22">
-        <v>0.0009858464332345265</v>
+        <v>0.00131602997723153</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H23">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I23">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J23">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N23">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O23">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P23">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q23">
-        <v>48.49627296300756</v>
+        <v>93.53521320081558</v>
       </c>
       <c r="R23">
-        <v>436.466456667068</v>
+        <v>841.8169188073401</v>
       </c>
       <c r="S23">
-        <v>0.0004656658213624609</v>
+        <v>0.0004745541465898935</v>
       </c>
       <c r="T23">
-        <v>0.0004656658213624608</v>
+        <v>0.0004745541465898934</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H24">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I24">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J24">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N24">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O24">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P24">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q24">
-        <v>1.981175703244889</v>
+        <v>1.227029559983333</v>
       </c>
       <c r="R24">
-        <v>17.830581329204</v>
+        <v>11.04326603985</v>
       </c>
       <c r="S24">
-        <v>1.902343736432294E-05</v>
+        <v>6.225377007783267E-06</v>
       </c>
       <c r="T24">
-        <v>1.902343736432293E-05</v>
+        <v>6.225377007783267E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H25">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I25">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J25">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N25">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O25">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P25">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q25">
-        <v>22.66865553717089</v>
+        <v>31.52561933670333</v>
       </c>
       <c r="R25">
-        <v>204.017899834538</v>
+        <v>283.73057403033</v>
       </c>
       <c r="S25">
-        <v>0.0002176665845631354</v>
+        <v>0.0001599463225462199</v>
       </c>
       <c r="T25">
-        <v>0.0002176665845631353</v>
+        <v>0.0001599463225462199</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H26">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I26">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J26">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N26">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O26">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P26">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q26">
-        <v>47.63500248546622</v>
+        <v>164.8818706391767</v>
       </c>
       <c r="R26">
-        <v>428.715022369196</v>
+        <v>1483.93683575259</v>
       </c>
       <c r="S26">
-        <v>0.0004573958203946453</v>
+        <v>0.0008365338863485634</v>
       </c>
       <c r="T26">
-        <v>0.0004573958203946451</v>
+        <v>0.0008365338863485634</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H27">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I27">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J27">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N27">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O27">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P27">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q27">
-        <v>95.57201969653599</v>
+        <v>102.2030156213122</v>
       </c>
       <c r="R27">
-        <v>860.148177268824</v>
+        <v>919.82714059181</v>
       </c>
       <c r="S27">
-        <v>0.0009176916148835679</v>
+        <v>0.0005185305426412657</v>
       </c>
       <c r="T27">
-        <v>0.000917691614883568</v>
+        <v>0.0005185305426412657</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H28">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I28">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J28">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N28">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O28">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P28">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q28">
-        <v>45.14356551987378</v>
+        <v>36.85392103234179</v>
       </c>
       <c r="R28">
-        <v>406.292089678864</v>
+        <v>331.685289291076</v>
       </c>
       <c r="S28">
-        <v>0.0004334728059015444</v>
+        <v>0.0001869796459056105</v>
       </c>
       <c r="T28">
-        <v>0.0004334728059015444</v>
+        <v>0.0001869796459056105</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H29">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I29">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J29">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N29">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O29">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P29">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q29">
-        <v>1.844210486732444</v>
+        <v>0.4834633819766667</v>
       </c>
       <c r="R29">
-        <v>16.597894380592</v>
+        <v>4.35117043779</v>
       </c>
       <c r="S29">
-        <v>1.770828434021312E-05</v>
+        <v>2.45286822780664E-06</v>
       </c>
       <c r="T29">
-        <v>1.770828434021312E-05</v>
+        <v>2.45286822780664E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H30">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I30">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J30">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N30">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O30">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P30">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q30">
-        <v>21.10149654738045</v>
+        <v>12.42144691578467</v>
       </c>
       <c r="R30">
-        <v>189.913468926424</v>
+        <v>111.793022242062</v>
       </c>
       <c r="S30">
-        <v>0.0002026185750234539</v>
+        <v>6.302064151900024E-05</v>
       </c>
       <c r="T30">
-        <v>0.0002026185750234539</v>
+        <v>6.302064151900024E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H31">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I31">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J31">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N31">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O31">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P31">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q31">
-        <v>44.34183751362311</v>
+        <v>64.96530271604733</v>
       </c>
       <c r="R31">
-        <v>399.076537622608</v>
+        <v>584.6877244444261</v>
       </c>
       <c r="S31">
-        <v>0.0004257745374011014</v>
+        <v>0.0003296037153641632</v>
       </c>
       <c r="T31">
-        <v>0.0004257745374011014</v>
+        <v>0.0003296037153641632</v>
       </c>
     </row>
   </sheetData>
